--- a/schemas/singlecell_schema_main_v0.3.xlsx
+++ b/schemas/singlecell_schema_main_v0.3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/providen/Documents/EI/Projects/SingleCellSchemas/schemas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9518E37A-67BF-6A4E-8637-C408ED0B1568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03876C63-4DA1-6B4C-8BD5-CA9C2EB6D3D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17960" xr2:uid="{7BD8D0E6-E1F4-E04F-9790-31602B31B6DB}"/>
   </bookViews>
@@ -7815,7 +7815,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection activeCell="A23" sqref="A23"/>
-      <selection pane="topRight" activeCell="A223" sqref="A213:A223"/>
+      <selection pane="topRight" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" customHeight="1"/>
